--- a/NodeJS/Code/16. Javascript Algorithms and Data Structures/16.2. Search/16.2.0. LinearSearch/Doc/_LinearSearch.xlsx
+++ b/NodeJS/Code/16. Javascript Algorithms and Data Structures/16.2. Search/16.2.0. LinearSearch/Doc/_LinearSearch.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23801"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24026"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\CODE\Roadmap\NodeJS\Code\16. Javascript Algorithms and Data Structures\16.2. Search\16.2.0. LinearSearch\Doc\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6B9C5BBD-5D06-4B61-BE6E-B84B3C66F040}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E52E40B4-37E3-4FF8-A2D2-66AA01E9528D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11310" xr2:uid="{54808A5D-4D56-48B1-BA3E-B1160B7B649B}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="7">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="8">
   <si>
     <t>tran</t>
   </si>
@@ -55,16 +55,26 @@
   </si>
   <si>
     <t>i</t>
+  </si>
+  <si>
+    <t>Return 2</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -90,11 +100,12 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -409,10 +420,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0BEA07DC-B11D-4DE0-A6CF-F000A6DC63A1}">
-  <dimension ref="A1:E14"/>
+  <dimension ref="A1:E16"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
-      <selection activeCell="A16" sqref="A16"/>
+      <selection activeCell="C14" sqref="C14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -452,7 +463,7 @@
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
+      <c r="A4" s="2" t="s">
         <v>6</v>
       </c>
     </row>
@@ -485,7 +496,7 @@
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="B8" t="s">
+      <c r="B8" s="2" t="s">
         <v>6</v>
       </c>
     </row>
@@ -518,7 +529,7 @@
       </c>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="C12" t="s">
+      <c r="C12" s="2" t="s">
         <v>6</v>
       </c>
     </row>
@@ -550,7 +561,13 @@
         <v>3</v>
       </c>
     </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
+        <v>7</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="200" verticalDpi="200" r:id="rId1"/>
 </worksheet>
 </file>